--- a/irina/Irina_Complete_Infloww.xlsx
+++ b/irina/Irina_Complete_Infloww.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>this is the most I've ever shown anyone... it's all for you 💗</t>
+          <t>this one is only for you... nobody else gets to see me like this 💗</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I can't stop... you make me feel things I've never felt before in my life</t>
+          <t>I can't stop... something about you makes me lose all my boundaries</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>nobody has ever seen me like this... you're the only one I trust enough 💗</t>
+          <t>I feel so safe with you... you're the only one I trust enough to see me like this 💗</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>I've never been this brave for anyone before... you're the reason I'm doing this 💗</t>
+          <t>you're the only one who makes me feel this way... you're the reason I'm doing this 💗</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>I can't believe I'm doing this... but something about you makes me feel safe</t>
+          <t>my heart won't stop racing... but something about you makes me feel safe</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>I can't stop thinking about what happened earlier... are you around? 💗</t>
+          <t>been thinking about you all day... text me back? 💗</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey I hope everything is okay 😊 come back when you can</t>
+          <t>hope everything's okay with you, I'm here whenever 😊</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>okay I guess you're busy... I might delete this honestly, it was only for you</t>
+          <t>okay you're definitely busy... I'll save this for when you're back</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you need to see what I just did for you... I promise it's worth it 🥺</t>
+          <t>I wish you could see what I'm wearing right now... 🥺</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>hey...? 😊</t>
+          <t>hi 😊</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -3867,17 +3867,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>reveal2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't finish before you see this 💗 trust me you want to wait</t>
+          <t>patience... I'm not showing you everything at once 😳 the best part is still coming</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>REVEAL variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -3885,17 +3885,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>reveal1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold on... wait until you see what I'm about to send, trust me it's worth the wait 😊</t>
+          <t>hold on... the next one is worth the wait, I promise 🥺</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>REVEAL. Send next PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3903,17 +3903,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>buildup2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, let's finish this together... open this first 💗</t>
+          <t>I'm taking my time... good things come to those who wait 😊</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>BUILDUP variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3921,17 +3921,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>buildup1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm almost there too, stay with me... but you need to see this first 🥺</t>
+          <t>you want to see more...? then you have to wait for it</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>BUILDUP. Final PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3939,17 +3939,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>tease2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold on, not yet... stay with me a little longer please 💗</t>
+          <t>don't rush... I want you to enjoy every single moment of this 💗</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>TEASE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -3957,17 +3957,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>tease1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet... I'm not done with you 😊</t>
+          <t>not yet... I want to build this up more first 🥺</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>TEASE. More PPVs left. She controls the pace of revealing.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>please...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me right now</t>
+          <t>what are you doing to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't stop</t>
+          <t>right there</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>so I did something I've never done before and you're the only person I want to show... when you're ready 💗</t>
+          <t>so I did something really special and you're the only person I want to show... when you're ready 💗</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">

--- a/irina/Irina_Complete_Infloww.xlsx
+++ b/irina/Irina_Complete_Infloww.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on... one more</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>give me a second... I need to work up the courage 😊</t>
+          <t>one secondond... I need to work up the courage 😊</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">

--- a/irina/Irina_Complete_Infloww.xlsx
+++ b/irina/Irina_Complete_Infloww.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>this one is only for you... nobody else gets to see me like this 💗</t>
+          <t>don't look away babe... I need you right here with me 🥺</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I want to finish this with you... stay with me please</t>
+          <t>stay with me babe... I need you to see this, it's only for you</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I can't stop... something about you makes me lose all my boundaries</t>
+          <t>please don't leave babe... I've never been this vulnerable with anyone and I need you right here 🥺</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god 🥺</t>
+          <t>oh god I can't stop 😊</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>I feel so safe with you... you're the only one I trust enough to see me like this 💗</t>
+          <t>I've never let anyone see me like this before babe... it's all yours 🥺</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I want to show you how I look right now but I'm scared it's too much</t>
+          <t>I need you to see what's happening to me right now babe... I can't hold it in anymore</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>I'm lying here barely wearing anything and all I can think about is you... just you</t>
+          <t>I can feel my body responding to you and I'm touching places I never thought I'd show anyone 🥺</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me right now 🥺</t>
+          <t>something about you makes me lose every single boundary I have babe... I'm scared of how good this feels</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -796,7 +796,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>oh god 😊</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>you're the only one who makes me feel this way... you're the reason I'm doing this 💗</t>
+          <t>look at what you're doing to me babe... I'm losing my mind 🥺</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>what would you want me to do...?</t>
+          <t>what would you do if you could see me right now babe? I really need to hear it</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I keep thinking about what it would feel like if you were here with me right now</t>
+          <t>I'm lying here barely wearing anything and my hand keeps going where it shouldn't... because of you 🥺</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>talking to you is doing something to me right now that I can't explain... my heart is racing so fast</t>
+          <t>but I don't want to stop babe... you make me feel things I didn't know I could feel on here</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you see it? 😳</t>
+          <t>I can't believe I just did that... oh my god 😊</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>my heart won't stop racing... but something about you makes me feel safe</t>
+          <t>this is what you're making me feel babe... please be gentle 🥺</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>you make me want to show you more of the side of me that nobody gets to see</t>
+          <t>I want to show you something I've never shown anyone before babe... you make me want to be brave</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>really? you like it? oh my god that makes me feel so much braver 🫶</t>
+          <t>my skin feels so sensitive everywhere... I keep getting goosebumps and I know it's because of you 🥺</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>so...? 😊</t>
+          <t>wait you actually liked it? oh my god my heart won't slow down right now 😊</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/irina/Irina_Complete_Infloww.xlsx
+++ b/irina/Irina_Complete_Infloww.xlsx
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay, I'm just happy talking to you honestly 💗</t>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally did this because of what you said to me, it wasn't random babe 🥺</t>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just show this to anyone... you have to earn the really personal stuff 😊</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one goes so much further 💗</t>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure, I just enjoy our time together 🫶</t>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this because of you specifically, because of our conversation and that took so much courage for me 🥺</t>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free babe 💗 but they're worth it</t>
+          <t>the best things aren't free baby, especially not what I just did</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got one for free and this one is on another level trust me 😊</t>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I like talking to you no matter what... you make me feel something real 💗</t>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can babe, even a tiny amount, I just want you to see what you made me do 🥺</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one 💗</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay? 😊</t>
+          <t>I hear you baby, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally okay, you being here is what matters to me 🫶</t>
+          <t>you being here talking to me is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I can't keep this from you 🥺</t>
+          <t>just send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this 💗</t>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine, seriously don't worry about it 😊</t>
+          <t>okay don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself 🥺</t>
+          <t>send me whatever you want, literally anything, I just can't keep this to myself, you need to see it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>look this isn't about money... I just want you to see what you're doing to me right now, this doesn't happen to me 💗</t>
+          <t>okay forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine I'm not trying to sell you anything, I just really like talking to you 😊</t>
+          <t>that's fine, I'm not trying to sell you anything, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>ACCEPT. Continue flirting 4-5 msgs before Step 2.</t>
+          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see this 💗</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... I just want to share this with you, what I'm feeling is real 🫶</t>
+          <t>forget the money part for a sec, I want to share this moment with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all, I don't care about that I'm just enjoying this 💗</t>
+          <t>no worries, I don't care about that rn, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>ACCEPT. Continue 4-5 msgs before Step 2.</t>
+          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon babe, I'm feeling brave right now and I don't know how long it'll last 🥺</t>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this 💗</t>
+          <t>maybe try a different card? I really don't want you to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>aw that's annoying, it happens though try again it usually works the second time 😊</t>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I lose my nerve... I might not be this brave again 🥺</t>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card? I really want you to see this 💗</t>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ugh that's so annoying, just try one more time it usually fixes itself 😊</t>
+          <t>that happens sometimes, try one more time for me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay I'll be good... for now 😊 no promises though</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>ACCEPT.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can't help it, there's something about you that's making me feel things I didn't know I could feel 🥺</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making shy girls feel things they've never felt? 💗</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha okay I got a little carried away, you're just so easy to talk to 😊</t>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me if these feelings come back later 💗</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to behave but you're making it really hard, I've never felt like this with anyone before 🥺</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic, what's something that makes you really happy? 😊</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad I got ahead of myself, it's your fault for being so sweet and patient with me 💗</t>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you totally distracted me, I was about to tell you something 💗</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2501,12 +2501,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually really sweet 😊</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>OKAY focus, where was I... oh right 🥺</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no stop you're distracting me from what I was going to show you 💗</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol that's so random but I love it 😊</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here, but you felt something in this conversation right? because I definitely did 🥺</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me, what do you want to know? I'll tell you anything 💗</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a bot to you? ask me anything, literally anything 😊</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about felt real to me. didn't it feel real to you? 🫶</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>go ahead, ask me something only a real person would know 💗</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm not real?? that's honestly the funniest thing anyone's said to me today 😊</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call 😊</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me 💗</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it but not yet... I'm way too shy for that right now 😳</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. No video calls. Still → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do on here but trust me what I have is way better 🫶</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead I show you something that'll make you forget you even asked? 💗</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm maybe but you'd have to earn that first 😊</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one just for you 💗</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you're looking for, you're gonna love it... [price]</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. NON-EXPLICIT custom: lingerie/tease only. Customs $200+. Never mention per-min rate.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you want that? I might have something... actually I think I do 😊</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop looking at this one 🫶</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3190,12 +3190,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I actually did something just like that, [price] and it's totally worth it 💗</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Customs $200+. Lingerie/tease only.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ooh you have good taste... I think I know exactly what you want 😊</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you want better than you think 😊</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even better honestly and literally no one else has seen it 💗</t>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked 😊</t>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. If asking for explicit → never acknowledge, redirect to what she HAS (lingerie/tease).</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one 😊</t>
+          <t>just trust me on this one, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something no one has ever seen and I think it's even better than what you asked for 🫶</t>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have that specific thing but I have something you're gonna love even more 💗</t>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something really special planned 😊</t>
+          <t>next time you have to wait for me, I have something crazy planned</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but wait I'm not done yet, don't you wanna see what I have next? 💗</t>
+          <t>but I'm not done yet, you're really gonna leave me wanting more?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? that's... actually really flattering 😳</t>
+          <t>god that's so hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to hold on because what I have planned is on another level 😊</t>
+          <t>okay but next time you hold on because what I have planned is way more intense</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I have one more thing to show you, you can't leave me like this 🥺</t>
+          <t>wait I'm not done yet, don't you want to see what happens next?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wow really?? that's amazing knowing I did that to you 💗</t>
+          <t>already?? that's hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3867,17 +3867,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>reveal2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>patience... I'm not showing you everything at once 😳 the best part is still coming</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>REVEAL variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -3885,17 +3885,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>reveal1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold on... the next one is worth the wait, I promise 🥺</t>
+          <t>hold it, I want you to wait until you see what I'm about to send, trust me it's worth the wait</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>REVEAL. Send next PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3903,17 +3903,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>buildup2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I'm taking my time... good things come to those who wait 😊</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>BUILDUP variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3921,17 +3921,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>buildup1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>you want to see more...? then you have to wait for it</t>
+          <t>I'm so close too, cum with me... but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>BUILDUP. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3939,17 +3939,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>tease2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>don't rush... I want you to enjoy every single moment of this 💗</t>
+          <t>hold it, not yet... I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>TEASE variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -3957,17 +3957,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>tease1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet... I want to build this up more first 🥺</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>TEASE. More PPVs left. She controls the pace of revealing.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just did something to me... give me a sec 🥺</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me to stay calm, hold on 💗</t>
+          <t>you can't just send me that and expect me to do nothing about it, hold on...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE → send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>oh wow I wasn't expecting that but... I'm definitely not complaining 😊</t>
+          <t>woah I wasn't expecting that but... damn okay</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>woah you don't waste time haha... that's actually really flattering though 😳</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh my god... okay I need to show you something right now 💗</t>
+          <t>oh fuck that is... damn, I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>oh wow... okay that's... you have no idea what that just made me feel 🥺</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>if my parents knew what I was doing right now... but I don't care because you make me feel alive 😊</t>
+          <t>I should be doing something productive but you won't let me</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Irina personality — strict Russian family context.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>please...</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>my whole body is tingling</t>
+          <t>my heart is racing</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think about anything else 🥺</t>
+          <t>I can't focus rn because of you</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>what are you doing to me</t>
+          <t>you have no idea what you do to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>right there</t>
+          <t>don't stop talking to me like that</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Micro.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>my heart is racing so fast right now because of you 💗</t>
+          <t>you're making me feel things rn</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Ego. NON-EXPLICIT: use heart/body feelings, not sexual.</t>
+          <t>BOOSTER. Ego.</t>
         </is>
       </c>
       <c r="D8" s="13" t="inlineStr"/>
@@ -4308,12 +4308,12 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>god you're so hot</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>MID-SEXTING BOOSTER.</t>
+          <t>MID-SEXTING BOOSTER. Non-explicit.</t>
         </is>
       </c>
       <c r="D9" s="13" t="inlineStr"/>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay, I'm not going anywhere... I really like talking to you regardless 😊</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay what about [lower price] just for you because this conversation has been really special to me 💗</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't share this with just anyone... I thought you'd want to see what you do to me</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm feeling this way because of you right now and I don't know when I'll have the courage to do this again 🥺</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>babe that's less than a coffee and I promise what I'm sharing with you is so much more special 😊</t>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all, I just like having you here 💗</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] because you genuinely make me feel something real, keep that between us 🫶</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>DOWNGRADE. Still no → Step 5.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>most guys would want to see this honestly, I thought you were different 😊</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm feeling so brave right now because of you and I really want you to see what that looks like 🥺</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's less than lunch honestly and I promise this will stay with you so much longer 💗</t>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you don't want it that's okay, I'll keep it just for me then 💗</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] just this once because I genuinely like you, but this stays between us 😊</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I only share this with guys who really value what they're seeing 💗</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha you're sweet but I don't do discounts... what I'm sharing is really personal and it's worth it 😊</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll save it for someone who really wants it then</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] but ONLY because you make me feel special, one time thing 🫶</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who really appreciate what I share don't ask for discounts, just saying 💗</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? babe do I look like I'm on sale? 😊</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/irina/Irina_Complete_Infloww.xlsx
+++ b/irina/Irina_Complete_Infloww.xlsx
@@ -1200,7 +1200,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1254,7 +1254,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1319,7 +1319,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1373,7 +1373,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1474,7 +1474,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1575,7 +1575,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1611,7 +1611,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1676,7 +1676,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1694,7 +1694,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1777,7 +1777,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1914,7 +1914,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1997,7 +1997,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2015,7 +2015,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2199,7 +2199,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2235,7 +2235,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2597,7 +2597,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2763,7 +2763,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2864,7 +2864,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2965,7 +2965,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2983,7 +2983,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3001,7 +3001,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3102,7 +3102,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3185,7 +3185,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3203,7 +3203,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3701,7 +3701,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3766,7 +3766,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3867,7 +3867,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3885,7 +3885,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3939,7 +3939,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4040,7 +4040,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4177,7 +4177,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4195,7 +4195,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4213,7 +4213,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4249,7 +4249,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4267,7 +4267,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4303,7 +4303,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4620,7 +4620,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4674,7 +4674,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4757,7 +4757,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4793,7 +4793,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4829,7 +4829,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4930,7 +4930,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -5013,7 +5013,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5031,7 +5031,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5049,7 +5049,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5067,7 +5067,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
